--- a/resumenes/032025.xlsx
+++ b/resumenes/032025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Betanzos\Cuadrantes\Cuadrante 2026\Resúmenes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02086571-63D8-4D9F-AF34-CA5F76D0EAC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79230BFA-A462-4ECE-8FCE-459A0027778C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" tabRatio="714" xr2:uid="{A6BE57BE-AE6F-4137-B9DB-98770C09AFCD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="714" xr2:uid="{A6BE57BE-AE6F-4137-B9DB-98770C09AFCD}"/>
   </bookViews>
   <sheets>
     <sheet name="032025" sheetId="11" r:id="rId1"/>
@@ -36,48 +36,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
-  <metadataTypes count="1">
-    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="3">
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="0"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="2"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <valueMetadata count="3">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-    <bk>
-      <rc t="1" v="1"/>
-    </bk>
-    <bk>
-      <rc t="1" v="2"/>
-    </bk>
-  </valueMetadata>
-</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -929,9 +887,6 @@
   </cellStyleXfs>
   <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1087,57 +1042,60 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="1">
     <dxf>
       <font>
         <b/>
@@ -1147,26 +1105,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FF00FF00"/>
           <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1181,6 +1119,143 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>853440</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1630747</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1234543</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71A01DA4-A109-4C66-8E45-AE09DBBAD564}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="853440" y="45720"/>
+          <a:ext cx="777307" cy="1188823"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76211</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1050600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1184538</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2" descr="2.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB0A76D1-42C7-26ED-065B-58F3FC7FA5F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2514600" y="76211"/>
+          <a:ext cx="10728000" cy="1108327"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533585</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1234543</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3" descr="Concello de Betanzos.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FDFF7C2-75F6-B14B-6BB8-972917453D42}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13837920" y="45720"/>
+          <a:ext cx="2133785" cy="1188823"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1247,87 +1322,6 @@
     </sheetDataSet>
   </externalBook>
 </externalLink>
-</file>
-
-<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
-<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <global>
-    <keyFlags>
-      <key name="_Self">
-        <flag name="ExcludeFromFile" value="1"/>
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_DisplayString">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Flags">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Format">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_SubLabel">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Attribution">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Icon">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Display">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_CanonicalPropertyNames">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_ClassificationId">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-    </keyFlags>
-  </global>
-</rvTypesInfo>
-</file>
-
-<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
-  <rv s="0">
-    <v>0</v>
-    <v>5</v>
-  </rv>
-  <rv s="1">
-    <v>1</v>
-    <v>5</v>
-    <v>2.jpg</v>
-  </rv>
-  <rv s="1">
-    <v>2</v>
-    <v>5</v>
-    <v>Concello de Betanzos.jpg</v>
-  </rv>
-</rvData>
-</file>
-
-<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
-  <s t="_localImage">
-    <k n="_rvRel:LocalImageIdentifier" t="i"/>
-    <k n="CalcOrigin" t="i"/>
-  </s>
-  <s t="_localImage">
-    <k n="_rvRel:LocalImageIdentifier" t="i"/>
-    <k n="CalcOrigin" t="i"/>
-    <k n="Text" t="s"/>
-  </s>
-</rvStructures>
-</file>
-
-<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
-<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rel r:id="rId1"/>
-  <rel r:id="rId2"/>
-  <rel r:id="rId3"/>
-</richValueRels>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1663,667 +1657,651 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="100.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="e" vm="1">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B1" s="64" t="e" vm="2">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64" t="e" vm="3">
-        <v>#VALUE!</v>
-      </c>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
+      <c r="A1" s="57"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
     </row>
     <row r="2" spans="1:16" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
-      <c r="A2" s="56" t="s">
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="3"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="2"/>
     </row>
     <row r="3" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="59"/>
-      <c r="B3" s="61" t="s">
+      <c r="A3" s="72"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="H3" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="3"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="2"/>
     </row>
     <row r="4" spans="1:16" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="60"/>
-      <c r="B4" s="34" t="s">
+      <c r="A4" s="73"/>
+      <c r="B4" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="F4" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="36" t="s">
+      <c r="G4" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="37" t="s">
+      <c r="H4" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="35" t="s">
+      <c r="I4" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="35" t="s">
+      <c r="K4" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="38" t="s">
+      <c r="L4" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="39" t="s">
+      <c r="M4" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="N4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="3"/>
-    </row>
-    <row r="5" spans="1:16" s="12" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="65" t="s">
+      <c r="O4" s="2"/>
+    </row>
+    <row r="5" spans="1:16" s="11" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="15">
+      <c r="B5" s="59"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="14">
         <f>SUM(B5:M5)</f>
         <v>0</v>
       </c>
-      <c r="O5" s="11"/>
-    </row>
-    <row r="6" spans="1:16" s="12" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="16" t="s">
+      <c r="O5" s="10"/>
+    </row>
+    <row r="6" spans="1:16" s="11" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="19">
+      <c r="B6" s="60"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="18">
         <f t="shared" ref="N6" si="0">SUM(B6:M6)</f>
         <v>0</v>
       </c>
-      <c r="O6" s="11"/>
-    </row>
-    <row r="7" spans="1:16" s="12" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="65" t="s">
+      <c r="O6" s="10"/>
+    </row>
+    <row r="7" spans="1:16" s="11" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="68"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="15" t="str">
+      <c r="B7" s="61"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="14" t="str">
         <f>CONCATENATE(SUM(B7:M7),"/54")</f>
         <v>0/54</v>
       </c>
-      <c r="O7" s="11"/>
-    </row>
-    <row r="8" spans="1:16" s="12" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="16" t="s">
+      <c r="O7" s="10"/>
+    </row>
+    <row r="8" spans="1:16" s="11" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="67"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="19" t="str">
+      <c r="B8" s="60"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="18" t="str">
         <f>_xlfn.CONCAT(SUM(B8:M8),"/22")</f>
         <v>0/22</v>
       </c>
-      <c r="O8" s="6"/>
-    </row>
-    <row r="9" spans="1:16" s="12" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="65" t="s">
+      <c r="O8" s="5"/>
+    </row>
+    <row r="9" spans="1:16" s="11" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="68"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="15" t="str">
+      <c r="B9" s="61"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="14" t="str">
         <f>_xlfn.CONCAT(SUM(F9:M9),"/8")</f>
         <v>0/8</v>
       </c>
-      <c r="O9" s="6"/>
-    </row>
-    <row r="10" spans="1:16" s="12" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="16" t="s">
+      <c r="O9" s="5"/>
+    </row>
+    <row r="10" spans="1:16" s="11" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="67"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="19" t="str">
+      <c r="B10" s="60"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="18" t="str">
         <f>_xlfn.CONCAT(SUM(B10:M10),"/6")</f>
         <v>0/6</v>
       </c>
-      <c r="O10" s="11"/>
-      <c r="P10" s="21"/>
-    </row>
-    <row r="11" spans="1:16" s="12" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="69" t="s">
+      <c r="O10" s="10"/>
+      <c r="P10" s="20"/>
+    </row>
+    <row r="11" spans="1:16" s="11" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="70"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="24">
+      <c r="B11" s="63"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="23">
         <f t="shared" ref="N11:N16" si="1">SUM(B11:M11)</f>
         <v>0</v>
       </c>
-      <c r="O11" s="11"/>
-    </row>
-    <row r="12" spans="1:16" s="12" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="16" t="s">
+      <c r="O11" s="10"/>
+    </row>
+    <row r="12" spans="1:16" s="11" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="67"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="19">
+      <c r="B12" s="60"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O12" s="11"/>
-    </row>
-    <row r="13" spans="1:16" s="12" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="65" t="s">
+      <c r="O12" s="10"/>
+    </row>
+    <row r="13" spans="1:16" s="11" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="68"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="15">
+      <c r="B13" s="61"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O13" s="11"/>
-    </row>
-    <row r="14" spans="1:16" s="12" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="16" t="s">
+      <c r="O13" s="10"/>
+    </row>
+    <row r="14" spans="1:16" s="11" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="67"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="19">
+      <c r="B14" s="60"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O14" s="11"/>
-    </row>
-    <row r="15" spans="1:16" s="12" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="65" t="s">
+      <c r="O14" s="10"/>
+    </row>
+    <row r="15" spans="1:16" s="11" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A15" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="68"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="15">
+      <c r="B15" s="61"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O15" s="11"/>
-    </row>
-    <row r="16" spans="1:16" s="12" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="71" t="s">
+      <c r="O15" s="10"/>
+    </row>
+    <row r="16" spans="1:16" s="11" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="72"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="27">
+      <c r="B16" s="65"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O16" s="11"/>
-    </row>
-    <row r="17" spans="1:16" s="12" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="65" t="s">
+      <c r="O16" s="10"/>
+    </row>
+    <row r="17" spans="1:16" s="11" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="68"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="15" t="str">
+      <c r="B17" s="61"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="14" t="str">
         <f>_xlfn.CONCAT(SUM(B17:M17),"/5")</f>
         <v>0/5</v>
       </c>
-      <c r="O17" s="11"/>
-    </row>
-    <row r="18" spans="1:16" s="12" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="16" t="s">
+      <c r="O17" s="10"/>
+    </row>
+    <row r="18" spans="1:16" s="11" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="67"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="19">
+      <c r="B18" s="60"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="18">
         <f>SUM(B18:M18)</f>
         <v>0</v>
       </c>
-      <c r="O18" s="11"/>
-    </row>
-    <row r="19" spans="1:16" s="12" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="65" t="s">
+      <c r="O18" s="10"/>
+    </row>
+    <row r="19" spans="1:16" s="11" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A19" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="70"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="15" t="str">
+      <c r="B19" s="63"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="14" t="str">
         <f>_xlfn.CONCAT(SUM(B19:M19),"/20")</f>
         <v>0/20</v>
       </c>
-      <c r="O19" s="11"/>
-    </row>
-    <row r="20" spans="1:16" s="21" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="73" t="s">
+      <c r="O19" s="10"/>
+    </row>
+    <row r="20" spans="1:16" s="20" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A20" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="67"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="19" t="str">
+      <c r="B20" s="60"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="18" t="str">
         <f>_xlfn.CONCAT(SUM(B20:M20),"/24")</f>
         <v>0/24</v>
       </c>
-      <c r="O20" s="28"/>
-    </row>
-    <row r="21" spans="1:16" s="12" customFormat="1" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="29" t="s">
+      <c r="O20" s="27"/>
+    </row>
+    <row r="21" spans="1:16" s="11" customFormat="1" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="74"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="42">
+      <c r="B21" s="67"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="41">
         <f>'[1]Resumen Anual'!D10+B21+C21+D21+E21+F21+G21+H21+I21+J21+K21+L21+M21+P21</f>
         <v>88.5</v>
       </c>
-      <c r="O21" s="32" t="s">
+      <c r="O21" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="P21" s="33"/>
-    </row>
-    <row r="22" spans="1:16" s="21" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="16" t="s">
+      <c r="P21" s="32"/>
+    </row>
+    <row r="22" spans="1:16" s="20" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A22" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="53"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="44"/>
-      <c r="M22" s="44"/>
-      <c r="N22" s="45">
+      <c r="B22" s="52"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="44">
         <f t="shared" ref="N22:N27" si="2">SUM(B22:H22)</f>
         <v>0</v>
       </c>
-      <c r="O22" s="28">
+      <c r="O22" s="27">
         <f>N22*7.5</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" s="12" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="46" t="s">
+    <row r="23" spans="1:16" s="11" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A23" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="46"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="48"/>
-      <c r="N23" s="15">
+      <c r="B23" s="45"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="47"/>
+      <c r="N23" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O23" s="28">
+      <c r="O23" s="27">
         <f>N23*7.5</f>
         <v>0</v>
       </c>
-      <c r="P23" s="33"/>
-    </row>
-    <row r="24" spans="1:16" s="21" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="16" t="s">
+      <c r="P23" s="32"/>
+    </row>
+    <row r="24" spans="1:16" s="20" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A24" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="53"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="44"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="44"/>
-      <c r="M24" s="44"/>
-      <c r="N24" s="45">
+      <c r="B24" s="52"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O24" s="28">
+      <c r="O24" s="27">
         <f>N24*9</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" s="12" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A25" s="52" t="s">
+    <row r="25" spans="1:16" s="11" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A25" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="54"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="49"/>
-      <c r="K25" s="49"/>
-      <c r="L25" s="49"/>
-      <c r="M25" s="49"/>
-      <c r="N25" s="15">
+      <c r="B25" s="53"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="48"/>
+      <c r="M25" s="48"/>
+      <c r="N25" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O25" s="28">
+      <c r="O25" s="27">
         <f>N25*7.5</f>
         <v>0</v>
       </c>
-      <c r="P25" s="33"/>
-    </row>
-    <row r="26" spans="1:16" s="21" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="16" t="s">
+      <c r="P25" s="32"/>
+    </row>
+    <row r="26" spans="1:16" s="20" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A26" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="53"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="44"/>
-      <c r="K26" s="44"/>
-      <c r="L26" s="44"/>
-      <c r="M26" s="44"/>
-      <c r="N26" s="45">
+      <c r="B26" s="52"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
+      <c r="N26" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O26" s="28">
+      <c r="O26" s="27">
         <f>N26*7.5</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:16" s="12" customFormat="1" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="29" t="s">
+    <row r="27" spans="1:16" s="11" customFormat="1" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="30"/>
-      <c r="N27" s="55">
+      <c r="B27" s="28"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="54">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O27" s="28">
+      <c r="O27" s="27">
         <f>N27*9</f>
         <v>0</v>
       </c>
-      <c r="P27" s="33"/>
+      <c r="P27" s="32"/>
     </row>
     <row r="28" spans="1:16" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="2"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:N3"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="L1:N1"/>
-  </mergeCells>
   <conditionalFormatting sqref="N28:O28">
     <cfRule type="containsText" dxfId="0" priority="23" operator="containsText" text="ex">
       <formula>NOT(ISERROR(SEARCH(("ex"),(N28))))</formula>
@@ -2332,5 +2310,6 @@
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="45" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>